--- a/2018-19_CCSB_LoadsData_WY2010-2018/Sites/S_Abutment_11452800/8_wy2010-2015/8_rloadest/8_pTHg/8_Flux Files/Model 3_selected/8_S_Abutment_pTHg_m3_Flux_Annual_slrose.xlsx
+++ b/2018-19_CCSB_LoadsData_WY2010-2018/Sites/S_Abutment_11452800/8_wy2010-2015/8_rloadest/8_pTHg/8_Flux Files/Model 3_selected/8_S_Abutment_pTHg_m3_Flux_Annual_slrose.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018-19_CCSB_LoadsData_WY2010-2018\Sites\S_Abutment_11452800\8_wy2010-2015\8_rloadest\8_pTHg\8_Flux Files\Model 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018-19_CCSB_LoadsData_WY2010-2018\Sites\S_Abutment_11452800\8_wy2010-2015\8_rloadest\8_pTHg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C71807F-49E1-4486-8A18-E2699FA09D7D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A687D4-F215-4F10-B92D-ECAE3118BCFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2340" yWindow="555" windowWidth="15165" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="8_S_Abutment_pTHg_m3_Flux_Annua" sheetId="1" r:id="rId1"/>
@@ -43,28 +43,28 @@
     <t>U95</t>
   </si>
   <si>
+    <t>WY 2010</t>
+  </si>
+  <si>
+    <t>WY 2011</t>
+  </si>
+  <si>
+    <t>WY 2012</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>WY 2013</t>
+  </si>
+  <si>
+    <t>WY 2014</t>
+  </si>
+  <si>
+    <t>WY 2015</t>
+  </si>
+  <si>
     <t>% std err of flux</t>
-  </si>
-  <si>
-    <t>WY 2010</t>
-  </si>
-  <si>
-    <t>WY 2011</t>
-  </si>
-  <si>
-    <t>WY 2012</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>WY 2013</t>
-  </si>
-  <si>
-    <t>WY 2014</t>
-  </si>
-  <si>
-    <t>WY 2015</t>
   </si>
 </sst>
 </file>
@@ -554,10 +554,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -916,7 +917,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -952,29 +953,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>365</v>
       </c>
       <c r="D2">
-        <v>8.9295050000000008E-3</v>
+        <v>8.6727496967275892E-3</v>
       </c>
       <c r="E2">
-        <v>5.0977310000000003E-3</v>
+        <v>4.9106404946817096E-3</v>
       </c>
       <c r="F2">
-        <v>5.8501549999999999E-2</v>
+        <v>5.6489149816248599E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>2.9799999999999999E-5</v>
+        <v>2.9261759077413702E-5</v>
       </c>
       <c r="H2">
-        <v>6.0949533E-2</v>
+        <v>5.9194130017568299E-2</v>
       </c>
       <c r="J2" s="2">
         <f>(E2/D2)*100</f>
-        <v>57.088618014100447</v>
+        <v>56.621494524794116</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -982,29 +983,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>365</v>
       </c>
       <c r="D3">
-        <v>8.3873888999999993E-2</v>
+        <v>8.2087508243031002E-2</v>
       </c>
       <c r="E3">
-        <v>4.0752080000000003E-2</v>
+        <v>3.9338574060584101E-2</v>
       </c>
       <c r="F3">
-        <v>0.224341912</v>
+        <v>0.217337905079109</v>
       </c>
       <c r="G3">
-        <v>1.7172349999999999E-3</v>
+        <v>1.71638743758848E-3</v>
       </c>
       <c r="H3">
-        <v>0.50238548800000005</v>
+        <v>0.49012557181219302</v>
       </c>
       <c r="J3" s="2">
-        <f>(E3/D3)*100</f>
-        <v>48.587326146281363</v>
+        <f t="shared" ref="J3:J7" si="0">(E3/D3)*100</f>
+        <v>47.922728929859844</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1012,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>366</v>
@@ -1024,43 +1025,44 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>365</v>
       </c>
       <c r="D5">
-        <v>1.7086832999999999E-2</v>
+        <v>1.6886968202844899E-2</v>
       </c>
       <c r="E5">
-        <v>5.6391920000000003E-3</v>
+        <v>5.5481510443812698E-3</v>
       </c>
       <c r="F5">
-        <v>0.11151734100000001</v>
+        <v>0.10991189307296</v>
       </c>
       <c r="G5" s="1">
-        <v>5.7399999999999999E-5</v>
+        <v>5.7057681432323498E-5</v>
       </c>
       <c r="H5">
-        <v>0.116624856</v>
+        <v>0.115257877466642</v>
       </c>
       <c r="J5" s="2">
-        <f>(E5/D5)*100</f>
-        <v>33.003143414581274</v>
+        <f t="shared" si="0"/>
+        <v>32.854630729076575</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1068,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>365</v>
@@ -1080,43 +1082,44 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>365</v>
       </c>
       <c r="D7">
-        <v>3.4538386999999997E-2</v>
+        <v>3.4574564666249502E-2</v>
       </c>
       <c r="E7">
-        <v>1.6697786999999999E-2</v>
+        <v>1.6669397238608E-2</v>
       </c>
       <c r="F7">
-        <v>0.20874199600000001</v>
+        <v>0.208361897253588</v>
       </c>
       <c r="G7">
-        <v>1.3503500000000001E-4</v>
+        <v>1.35944738824673E-4</v>
       </c>
       <c r="H7">
-        <v>0.235403536</v>
+        <v>0.235630480101677</v>
       </c>
       <c r="J7" s="2">
-        <f>(E7/D7)*100</f>
-        <v>48.345590082130933</v>
+        <f t="shared" si="0"/>
+        <v>48.212891180319303</v>
       </c>
     </row>
   </sheetData>
